--- a/src/test/resources/Vytracktestdata.xlsx
+++ b/src/test/resources/Vytracktestdata.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamaldemir/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C183250-0134-844D-AA10-75375100C696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" activeTab="5" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QA1-all" sheetId="4" r:id="rId1"/>
@@ -19,10 +13,11 @@
     <sheet name="QA2-short" sheetId="3" r:id="rId4"/>
     <sheet name="QA3-all" sheetId="1" r:id="rId5"/>
     <sheet name="QA3-short" sheetId="7" r:id="rId6"/>
+    <sheet name="QA1-Shortest" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3839" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3847" uniqueCount="1475">
   <si>
     <t>username</t>
   </si>
@@ -4466,8 +4461,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4558,7 +4553,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4610,7 +4605,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4804,27 +4799,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D70E95-9193-2444-8F5D-57688B5675B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D302"/>
   <sheetViews>
     <sheetView topLeftCell="A212" zoomScale="200" workbookViewId="0">
       <selection activeCell="A231" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4838,7 +4833,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4852,7 +4847,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4866,7 +4861,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4880,7 +4875,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4894,7 +4889,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4908,7 +4903,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4922,7 +4917,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4936,7 +4931,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4950,7 +4945,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4964,7 +4959,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4978,7 +4973,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4992,7 +4987,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5006,7 +5001,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5020,7 +5015,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5034,7 +5029,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5048,7 +5043,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5062,7 +5057,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5076,7 +5071,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5090,7 +5085,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5104,7 +5099,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5118,7 +5113,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5132,7 +5127,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -5146,7 +5141,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5160,7 +5155,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5174,7 +5169,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -5188,7 +5183,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5202,7 +5197,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5216,7 +5211,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5230,7 +5225,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5244,7 +5239,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5258,7 +5253,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5272,7 +5267,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5286,7 +5281,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5300,7 +5295,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5314,7 +5309,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5328,7 +5323,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5342,7 +5337,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5356,7 +5351,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5370,7 +5365,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5384,7 +5379,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5398,7 +5393,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -5412,7 +5407,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -5426,7 +5421,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -5440,7 +5435,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -5454,7 +5449,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -5468,7 +5463,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -5482,7 +5477,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -5496,7 +5491,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5510,7 +5505,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5524,7 +5519,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5538,7 +5533,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5552,7 +5547,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -5566,7 +5561,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5580,7 +5575,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5594,7 +5589,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5608,7 +5603,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5622,7 +5617,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5636,7 +5631,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -5650,7 +5645,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -5664,7 +5659,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5678,7 +5673,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5692,7 +5687,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5706,7 +5701,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -5720,7 +5715,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -5734,7 +5729,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -5748,7 +5743,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5762,7 +5757,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -5776,7 +5771,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -5790,7 +5785,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -5804,7 +5799,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -5818,7 +5813,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -5832,7 +5827,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -5846,7 +5841,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -5860,7 +5855,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -5874,7 +5869,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -5888,7 +5883,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -5902,7 +5897,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -5916,7 +5911,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -5930,7 +5925,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -5944,7 +5939,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -5958,7 +5953,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -5972,7 +5967,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5986,7 +5981,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -6000,7 +5995,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -6014,7 +6009,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -6028,7 +6023,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -6042,7 +6037,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -6056,7 +6051,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -6070,7 +6065,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -6084,7 +6079,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -6098,7 +6093,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -6112,7 +6107,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -6126,7 +6121,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -6140,7 +6135,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -6154,7 +6149,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -6168,7 +6163,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -6182,7 +6177,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -6196,7 +6191,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -6210,7 +6205,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -6224,7 +6219,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -6238,7 +6233,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -6252,7 +6247,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -6266,7 +6261,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -6280,7 +6275,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -6294,7 +6289,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -6308,7 +6303,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -6322,7 +6317,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -6336,7 +6331,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -6350,7 +6345,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -6364,7 +6359,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -6378,7 +6373,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -6392,7 +6387,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -6406,7 +6401,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -6420,7 +6415,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -6434,7 +6429,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -6448,7 +6443,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -6462,7 +6457,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -6476,7 +6471,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -6490,7 +6485,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -6504,7 +6499,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -6518,7 +6513,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -6532,7 +6527,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -6546,7 +6541,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -6560,7 +6555,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -6574,7 +6569,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -6588,7 +6583,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -6602,7 +6597,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -6616,7 +6611,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -6630,7 +6625,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -6644,7 +6639,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -6658,7 +6653,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -6672,7 +6667,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -6686,7 +6681,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -6700,7 +6695,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -6714,7 +6709,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -6728,7 +6723,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -6742,7 +6737,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -6756,7 +6751,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -6770,7 +6765,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -6784,7 +6779,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -6798,7 +6793,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -6812,7 +6807,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -6826,7 +6821,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -6840,7 +6835,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -6854,7 +6849,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -6868,7 +6863,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -6882,7 +6877,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -6896,7 +6891,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -6910,7 +6905,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -6924,7 +6919,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -6938,7 +6933,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -6952,7 +6947,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -6966,7 +6961,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -6980,7 +6975,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -6994,7 +6989,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -7008,7 +7003,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -7022,7 +7017,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -7036,7 +7031,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -7050,7 +7045,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -7064,7 +7059,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -7078,7 +7073,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -7092,7 +7087,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -7106,7 +7101,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -7120,7 +7115,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -7134,7 +7129,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -7148,7 +7143,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -7162,7 +7157,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -7176,7 +7171,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -7190,7 +7185,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -7204,7 +7199,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -7218,7 +7213,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -7232,7 +7227,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -7246,7 +7241,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -7260,7 +7255,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -7274,7 +7269,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -7288,7 +7283,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -7302,7 +7297,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -7316,7 +7311,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -7330,7 +7325,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -7344,7 +7339,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -7358,7 +7353,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -7372,7 +7367,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -7386,7 +7381,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -7400,7 +7395,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -7414,7 +7409,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -7428,7 +7423,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -7442,7 +7437,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -7456,7 +7451,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -7470,7 +7465,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -7484,7 +7479,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -7498,7 +7493,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -7512,7 +7507,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -7526,7 +7521,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -7540,7 +7535,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -7554,7 +7549,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -7568,7 +7563,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -7582,7 +7577,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -7596,7 +7591,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -7610,7 +7605,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -7624,7 +7619,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -7638,7 +7633,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -7652,7 +7647,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -7666,7 +7661,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -7680,7 +7675,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -7694,7 +7689,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -7708,7 +7703,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -7722,7 +7717,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -7736,7 +7731,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -7750,7 +7745,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -7764,7 +7759,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -7778,7 +7773,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -7792,7 +7787,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -7806,7 +7801,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -7820,7 +7815,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -7834,7 +7829,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -7848,7 +7843,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -7862,7 +7857,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -7876,7 +7871,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -7890,7 +7885,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -7904,7 +7899,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -7918,7 +7913,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -7932,7 +7927,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -7946,7 +7941,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -7960,7 +7955,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -7974,7 +7969,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -7988,7 +7983,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -8002,7 +7997,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -8016,7 +8011,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -8030,7 +8025,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -8044,7 +8039,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -8058,7 +8053,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -8072,7 +8067,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -8086,7 +8081,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -8100,7 +8095,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -8114,7 +8109,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -8128,7 +8123,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -8142,7 +8137,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -8156,7 +8151,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -8170,7 +8165,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -8184,7 +8179,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -8198,7 +8193,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -8212,7 +8207,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -8226,7 +8221,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -8240,7 +8235,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -8254,7 +8249,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -8268,7 +8263,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -8282,7 +8277,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -8296,7 +8291,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -8310,7 +8305,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -8324,7 +8319,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -8338,7 +8333,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -8352,7 +8347,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -8366,7 +8361,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -8380,7 +8375,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -8394,7 +8389,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -8408,7 +8403,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -8422,7 +8417,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -8436,7 +8431,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -8450,7 +8445,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -8464,7 +8459,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -8478,7 +8473,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -8492,7 +8487,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -8506,7 +8501,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -8520,7 +8515,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -8534,7 +8529,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -8548,7 +8543,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -8562,7 +8557,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -8576,7 +8571,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -8590,7 +8585,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -8604,7 +8599,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -8618,7 +8613,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -8632,7 +8627,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -8646,7 +8641,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -8660,7 +8655,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -8674,7 +8669,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -8688,7 +8683,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -8702,7 +8697,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -8716,7 +8711,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -8730,7 +8725,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -8744,7 +8739,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -8758,7 +8753,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -8772,7 +8767,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -8786,7 +8781,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -8800,7 +8795,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -8814,7 +8809,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -8828,7 +8823,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -8842,7 +8837,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -8856,7 +8851,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -8870,7 +8865,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -8884,7 +8879,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -8898,7 +8893,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -8912,7 +8907,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -8926,7 +8921,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -8940,7 +8935,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -8954,7 +8949,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -8968,7 +8963,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -8982,7 +8977,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -8996,7 +8991,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -9010,7 +9005,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -9024,7 +9019,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -9038,7 +9033,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -9055,20 +9050,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25414FC-EB42-5647-8F63-8642E32C4CF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9085,7 +9080,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9102,7 +9097,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9119,7 +9114,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9136,7 +9131,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9153,7 +9148,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9170,7 +9165,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -9187,7 +9182,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -9204,7 +9199,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -9221,7 +9216,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -9238,7 +9233,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -9255,7 +9250,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -9272,7 +9267,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -9289,7 +9284,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -9306,7 +9301,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -9323,7 +9318,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -9346,20 +9341,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E126431-3714-5A42-8C23-7F054B5E2FB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D302"/>
   <sheetViews>
     <sheetView topLeftCell="A236" zoomScale="223" workbookViewId="0">
       <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9373,7 +9368,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9387,7 +9382,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9401,7 +9396,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9415,7 +9410,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9429,7 +9424,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9443,7 +9438,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9457,7 +9452,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9471,7 +9466,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9485,7 +9480,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9499,7 +9494,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -9513,7 +9508,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9527,7 +9522,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9541,7 +9536,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9555,7 +9550,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -9569,7 +9564,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -9583,7 +9578,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -9597,7 +9592,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -9611,7 +9606,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -9625,7 +9620,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -9639,7 +9634,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -9653,7 +9648,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -9667,7 +9662,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -9681,7 +9676,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -9695,7 +9690,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -9709,7 +9704,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -9723,7 +9718,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -9737,7 +9732,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -9751,7 +9746,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -9765,7 +9760,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -9779,7 +9774,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -9793,7 +9788,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -9807,7 +9802,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -9821,7 +9816,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -9835,7 +9830,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -9849,7 +9844,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -9863,7 +9858,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -9877,7 +9872,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -9891,7 +9886,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -9905,7 +9900,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -9919,7 +9914,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -9933,7 +9928,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -9947,7 +9942,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -9961,7 +9956,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -9975,7 +9970,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -9989,7 +9984,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -10003,7 +9998,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -10017,7 +10012,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -10031,7 +10026,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -10045,7 +10040,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -10059,7 +10054,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -10073,7 +10068,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -10087,7 +10082,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -10101,7 +10096,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -10115,7 +10110,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -10129,7 +10124,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -10143,7 +10138,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -10157,7 +10152,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -10171,7 +10166,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -10185,7 +10180,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -10199,7 +10194,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -10213,7 +10208,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -10227,7 +10222,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -10241,7 +10236,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -10255,7 +10250,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -10269,7 +10264,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -10283,7 +10278,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -10297,7 +10292,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -10311,7 +10306,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -10325,7 +10320,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -10339,7 +10334,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -10353,7 +10348,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -10367,7 +10362,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -10381,7 +10376,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -10395,7 +10390,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -10409,7 +10404,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -10423,7 +10418,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -10437,7 +10432,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -10451,7 +10446,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -10465,7 +10460,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -10479,7 +10474,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -10493,7 +10488,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -10507,7 +10502,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -10521,7 +10516,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -10535,7 +10530,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -10549,7 +10544,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -10563,7 +10558,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -10577,7 +10572,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -10591,7 +10586,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -10605,7 +10600,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -10619,7 +10614,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -10633,7 +10628,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -10647,7 +10642,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -10661,7 +10656,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -10675,7 +10670,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -10689,7 +10684,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -10703,7 +10698,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -10717,7 +10712,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -10731,7 +10726,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -10745,7 +10740,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -10759,7 +10754,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -10773,7 +10768,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -10787,7 +10782,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -10801,7 +10796,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -10815,7 +10810,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -10829,7 +10824,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -10843,7 +10838,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -10857,7 +10852,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -10871,7 +10866,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -10885,7 +10880,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -10899,7 +10894,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -10913,7 +10908,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -10927,7 +10922,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -10941,7 +10936,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -10955,7 +10950,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -10969,7 +10964,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -10983,7 +10978,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -10997,7 +10992,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -11011,7 +11006,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -11025,7 +11020,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -11039,7 +11034,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -11053,7 +11048,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -11067,7 +11062,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -11081,7 +11076,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -11095,7 +11090,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -11109,7 +11104,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -11123,7 +11118,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -11137,7 +11132,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -11151,7 +11146,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -11165,7 +11160,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -11179,7 +11174,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -11193,7 +11188,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -11207,7 +11202,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -11221,7 +11216,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -11235,7 +11230,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -11249,7 +11244,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -11263,7 +11258,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -11277,7 +11272,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -11291,7 +11286,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -11305,7 +11300,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -11319,7 +11314,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -11333,7 +11328,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -11347,7 +11342,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -11361,7 +11356,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -11375,7 +11370,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -11389,7 +11384,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -11403,7 +11398,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -11417,7 +11412,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -11431,7 +11426,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -11445,7 +11440,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -11459,7 +11454,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -11473,7 +11468,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -11487,7 +11482,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -11501,7 +11496,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -11515,7 +11510,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -11529,7 +11524,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -11543,7 +11538,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -11557,7 +11552,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -11571,7 +11566,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -11585,7 +11580,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -11599,7 +11594,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -11613,7 +11608,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -11627,7 +11622,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -11641,7 +11636,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -11655,7 +11650,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -11669,7 +11664,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -11683,7 +11678,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -11697,7 +11692,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -11711,7 +11706,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -11725,7 +11720,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -11739,7 +11734,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -11753,7 +11748,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -11767,7 +11762,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -11781,7 +11776,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -11795,7 +11790,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -11809,7 +11804,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -11823,7 +11818,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -11837,7 +11832,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -11851,7 +11846,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -11865,7 +11860,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -11879,7 +11874,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -11893,7 +11888,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -11907,7 +11902,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -11921,7 +11916,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -11935,7 +11930,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -11949,7 +11944,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -11963,7 +11958,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -11977,7 +11972,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -11991,7 +11986,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -12005,7 +12000,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -12019,7 +12014,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -12033,7 +12028,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -12047,7 +12042,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -12061,7 +12056,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -12075,7 +12070,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -12089,7 +12084,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -12103,7 +12098,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -12117,7 +12112,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -12131,7 +12126,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -12145,7 +12140,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -12159,7 +12154,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -12173,7 +12168,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -12187,7 +12182,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -12201,7 +12196,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -12215,7 +12210,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -12229,7 +12224,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -12243,7 +12238,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -12257,7 +12252,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -12271,7 +12266,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -12285,7 +12280,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -12299,7 +12294,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -12313,7 +12308,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -12327,7 +12322,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -12341,7 +12336,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -12355,7 +12350,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -12369,7 +12364,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -12383,7 +12378,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -12397,7 +12392,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -12411,7 +12406,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -12425,7 +12420,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -12439,7 +12434,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -12453,7 +12448,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -12467,7 +12462,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -12481,7 +12476,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -12495,7 +12490,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -12509,7 +12504,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -12523,7 +12518,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -12537,7 +12532,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -12551,7 +12546,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -12565,7 +12560,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -12579,7 +12574,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -12593,7 +12588,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -12607,7 +12602,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -12621,7 +12616,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -12635,7 +12630,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -12649,7 +12644,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -12663,7 +12658,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -12677,7 +12672,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -12691,7 +12686,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -12705,7 +12700,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -12719,7 +12714,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -12733,7 +12728,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -12747,7 +12742,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -12761,7 +12756,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -12775,7 +12770,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -12789,7 +12784,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -12803,7 +12798,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -12817,7 +12812,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -12831,7 +12826,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -12845,7 +12840,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -12859,7 +12854,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -12873,7 +12868,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -12887,7 +12882,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -12901,7 +12896,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -12915,7 +12910,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -12929,7 +12924,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -12943,7 +12938,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -12957,7 +12952,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -12971,7 +12966,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -12985,7 +12980,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -12999,7 +12994,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -13013,7 +13008,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -13027,7 +13022,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -13041,7 +13036,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -13055,7 +13050,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -13069,7 +13064,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -13083,7 +13078,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -13097,7 +13092,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -13111,7 +13106,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -13125,7 +13120,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -13139,7 +13134,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -13153,7 +13148,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -13167,7 +13162,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -13181,7 +13176,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -13195,7 +13190,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -13209,7 +13204,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -13223,7 +13218,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -13237,7 +13232,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -13251,7 +13246,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -13265,7 +13260,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -13279,7 +13274,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -13293,7 +13288,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -13307,7 +13302,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -13321,7 +13316,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -13335,7 +13330,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -13349,7 +13344,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -13363,7 +13358,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -13377,7 +13372,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -13391,7 +13386,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -13405,7 +13400,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -13419,7 +13414,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -13433,7 +13428,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -13447,7 +13442,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -13461,7 +13456,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -13475,7 +13470,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -13489,7 +13484,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -13503,7 +13498,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -13517,7 +13512,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -13531,7 +13526,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -13545,7 +13540,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -13559,7 +13554,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -13573,7 +13568,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -13593,20 +13588,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE515BF-79FE-384F-8A87-78DFBA2D1E2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="223" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13623,7 +13618,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13640,7 +13635,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13657,7 +13652,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13674,7 +13669,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13691,7 +13686,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13708,7 +13703,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -13725,7 +13720,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -13742,7 +13737,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -13759,7 +13754,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -13776,7 +13771,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -13793,7 +13788,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -13810,7 +13805,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -13827,7 +13822,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -13844,7 +13839,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -13861,7 +13856,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -13884,20 +13879,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99F80EE-B930-AE45-9D4A-163325A2F9E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D302"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13911,7 +13906,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13925,7 +13920,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13939,7 +13934,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13953,7 +13948,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13967,7 +13962,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13981,7 +13976,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13995,7 +13990,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -14009,7 +14004,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -14023,7 +14018,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -14037,7 +14032,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -14051,7 +14046,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -14065,7 +14060,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -14079,7 +14074,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -14093,7 +14088,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -14107,7 +14102,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -14121,7 +14116,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -14135,7 +14130,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -14149,7 +14144,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -14163,7 +14158,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -14177,7 +14172,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -14191,7 +14186,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -14205,7 +14200,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -14219,7 +14214,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -14233,7 +14228,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -14247,7 +14242,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -14261,7 +14256,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -14275,7 +14270,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -14289,7 +14284,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -14303,7 +14298,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -14317,7 +14312,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -14331,7 +14326,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -14345,7 +14340,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -14359,7 +14354,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -14373,7 +14368,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -14387,7 +14382,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -14401,7 +14396,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -14415,7 +14410,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -14429,7 +14424,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -14443,7 +14438,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -14457,7 +14452,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -14471,7 +14466,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -14485,7 +14480,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -14499,7 +14494,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -14513,7 +14508,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -14527,7 +14522,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -14541,7 +14536,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -14555,7 +14550,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -14569,7 +14564,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -14583,7 +14578,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -14597,7 +14592,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -14611,7 +14606,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -14625,7 +14620,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -14639,7 +14634,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -14653,7 +14648,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -14667,7 +14662,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -14681,7 +14676,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -14695,7 +14690,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -14709,7 +14704,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -14723,7 +14718,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -14737,7 +14732,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -14751,7 +14746,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -14765,7 +14760,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -14779,7 +14774,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -14793,7 +14788,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -14807,7 +14802,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -14821,7 +14816,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -14835,7 +14830,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -14849,7 +14844,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -14863,7 +14858,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -14877,7 +14872,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -14891,7 +14886,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -14905,7 +14900,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -14919,7 +14914,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -14933,7 +14928,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -14947,7 +14942,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -14961,7 +14956,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -14975,7 +14970,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -14989,7 +14984,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -15003,7 +14998,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -15017,7 +15012,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -15031,7 +15026,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -15045,7 +15040,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -15059,7 +15054,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -15073,7 +15068,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -15087,7 +15082,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -15101,7 +15096,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -15115,7 +15110,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -15129,7 +15124,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -15143,7 +15138,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -15157,7 +15152,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -15171,7 +15166,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -15185,7 +15180,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -15199,7 +15194,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -15213,7 +15208,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -15227,7 +15222,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -15241,7 +15236,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -15255,7 +15250,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -15269,7 +15264,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -15283,7 +15278,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -15297,7 +15292,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -15311,7 +15306,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -15325,7 +15320,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -15339,7 +15334,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -15353,7 +15348,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -15367,7 +15362,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -15381,7 +15376,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -15395,7 +15390,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -15409,7 +15404,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -15423,7 +15418,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -15437,7 +15432,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -15451,7 +15446,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -15465,7 +15460,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -15479,7 +15474,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -15493,7 +15488,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -15507,7 +15502,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -15521,7 +15516,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -15535,7 +15530,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -15549,7 +15544,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -15563,7 +15558,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -15577,7 +15572,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -15591,7 +15586,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -15605,7 +15600,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -15619,7 +15614,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -15633,7 +15628,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -15647,7 +15642,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -15661,7 +15656,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -15675,7 +15670,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -15689,7 +15684,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -15703,7 +15698,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -15717,7 +15712,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -15731,7 +15726,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -15745,7 +15740,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -15759,7 +15754,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -15773,7 +15768,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -15787,7 +15782,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -15801,7 +15796,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -15815,7 +15810,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -15829,7 +15824,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -15843,7 +15838,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -15857,7 +15852,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -15871,7 +15866,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -15885,7 +15880,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -15899,7 +15894,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -15913,7 +15908,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -15927,7 +15922,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -15941,7 +15936,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -15955,7 +15950,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -15969,7 +15964,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -15983,7 +15978,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -15997,7 +15992,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -16011,7 +16006,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -16025,7 +16020,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -16039,7 +16034,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -16053,7 +16048,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -16067,7 +16062,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -16081,7 +16076,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -16095,7 +16090,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -16109,7 +16104,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -16123,7 +16118,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -16137,7 +16132,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -16151,7 +16146,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -16165,7 +16160,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -16179,7 +16174,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -16193,7 +16188,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -16207,7 +16202,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -16221,7 +16216,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -16235,7 +16230,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -16249,7 +16244,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -16263,7 +16258,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -16277,7 +16272,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -16291,7 +16286,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -16305,7 +16300,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -16319,7 +16314,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -16333,7 +16328,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -16347,7 +16342,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -16361,7 +16356,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -16375,7 +16370,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -16389,7 +16384,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -16403,7 +16398,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -16417,7 +16412,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -16431,7 +16426,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -16445,7 +16440,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -16459,7 +16454,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -16473,7 +16468,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -16487,7 +16482,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -16501,7 +16496,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -16515,7 +16510,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -16529,7 +16524,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -16543,7 +16538,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -16557,7 +16552,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -16571,7 +16566,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -16585,7 +16580,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -16599,7 +16594,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -16613,7 +16608,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -16627,7 +16622,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -16641,7 +16636,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -16655,7 +16650,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -16669,7 +16664,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -16683,7 +16678,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -16697,7 +16692,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -16711,7 +16706,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -16725,7 +16720,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -16739,7 +16734,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -16753,7 +16748,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -16767,7 +16762,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -16781,7 +16776,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -16795,7 +16790,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -16809,7 +16804,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -16823,7 +16818,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -16837,7 +16832,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -16851,7 +16846,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -16865,7 +16860,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -16879,7 +16874,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -16893,7 +16888,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -16907,7 +16902,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -16921,7 +16916,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -16935,7 +16930,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -16949,7 +16944,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -16963,7 +16958,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -16977,7 +16972,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -16991,7 +16986,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -17005,7 +17000,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -17019,7 +17014,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -17033,7 +17028,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -17047,7 +17042,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -17061,7 +17056,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -17075,7 +17070,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -17089,7 +17084,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -17103,7 +17098,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -17117,7 +17112,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -17131,7 +17126,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -17145,7 +17140,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -17159,7 +17154,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -17173,7 +17168,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -17187,7 +17182,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -17201,7 +17196,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -17215,7 +17210,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -17229,7 +17224,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -17243,7 +17238,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -17257,7 +17252,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -17271,7 +17266,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -17285,7 +17280,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -17299,7 +17294,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -17313,7 +17308,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -17327,7 +17322,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -17341,7 +17336,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -17355,7 +17350,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -17369,7 +17364,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -17383,7 +17378,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -17397,7 +17392,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -17411,7 +17406,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -17425,7 +17420,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -17439,7 +17434,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -17453,7 +17448,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -17467,7 +17462,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -17481,7 +17476,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -17495,7 +17490,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -17509,7 +17504,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -17523,7 +17518,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -17537,7 +17532,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -17551,7 +17546,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -17565,7 +17560,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -17579,7 +17574,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -17593,7 +17588,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -17607,7 +17602,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -17621,7 +17616,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -17635,7 +17630,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -17649,7 +17644,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -17663,7 +17658,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -17677,7 +17672,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -17691,7 +17686,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -17705,7 +17700,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -17719,7 +17714,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -17733,7 +17728,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -17747,7 +17742,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -17761,7 +17756,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -17775,7 +17770,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -17789,7 +17784,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -17803,7 +17798,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -17817,7 +17812,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -17831,7 +17826,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -17845,7 +17840,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -17859,7 +17854,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -17873,7 +17868,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -17887,7 +17882,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -17901,7 +17896,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -17915,7 +17910,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -17929,7 +17924,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -17943,7 +17938,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -17957,7 +17952,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -17971,7 +17966,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -17985,7 +17980,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -17999,7 +17994,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -18013,7 +18008,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -18027,7 +18022,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -18041,7 +18036,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -18055,7 +18050,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -18069,7 +18064,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -18083,7 +18078,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -18097,7 +18092,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -18111,7 +18106,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -18131,20 +18126,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C30F00C-C683-0548-B7C4-02FB1EBCAEF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18158,7 +18153,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -18172,7 +18167,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -18186,7 +18181,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -18200,7 +18195,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -18214,7 +18209,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -18228,7 +18223,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -18242,7 +18237,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -18256,7 +18251,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -18270,7 +18265,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>202</v>
       </c>
@@ -18284,7 +18279,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>203</v>
       </c>
@@ -18298,7 +18293,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>204</v>
       </c>
@@ -18312,7 +18307,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -18326,7 +18321,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -18344,4 +18339,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Vytracktestdata.xlsx
+++ b/src/test/resources/Vytracktestdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="11760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="QA1-all" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3847" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3841" uniqueCount="1475">
   <si>
     <t>username</t>
   </si>
@@ -4799,7 +4799,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9053,7 +9053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -18343,10 +18343,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -18357,33 +18357,9 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" t="s">
         <v>1472</v>
       </c>
     </row>
